--- a/src/main/resources/DataExcel.xlsx
+++ b/src/main/resources/DataExcel.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14535" windowHeight="6045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14540" windowHeight="6050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -365,30 +364,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2012</v>
+      </c>
+      <c r="F1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
